--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2006 (F06).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2006 (F06).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,469 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Armadillo Cloak</t>
+          <t>('Armadillo Cloak', ['{1}{G}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2 and has trample.', 'Whenever enchanted creature deals damage, you gain that much life.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{G}{W}</t>
+          <t>('Arrogant Wurm', ['{3}{G}{G}', 'Creature — Wurm', 'Trample', 'Madness {2}{G} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Enchantment — Aura</t>
+          <t>('Astral Slide', ['{2}{W}', 'Enchantment', 'Whenever a player cycles a card, you may exile target creature. If you do, return that card to the battlefield under its owner’s control at the beginning of the next end step.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Enchant creature</t>
+          <t>("Chainer's Edict", ['{1}{B}', 'Sorcery', 'Target player sacrifices a creature.', 'Flashback {5}{B}{B} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Enchanted creature gets +2/+2 and has trample.</t>
+          <t>('Circular Logic', ['{2}{U}', 'Instant', 'Counter target spell unless its controller pays {1} for each card in your graveyard.', 'Madness {U} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Whenever enchanted creature deals damage, you gain that much life.</t>
+          <t>('Elves of Deep Shadow', ['{G}', 'Creature — Elf Druid', '{T}: Add {B}. Elves of Deep Shadow deals 1 damage to you.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arrogant Wurm</t>
+          <t>('Fire', ['{1}{R}', 'Instant', 'Fire deals 2 damage divided as you choose among one or two targets.', 'Ice', '{1}{U}', 'Instant', 'Tap target permanent.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{3}{G}{G}</t>
+          <t>('Goblin Warchief', ['{1}{R}{R}', 'Creature — Goblin Warrior', 'Goblin spells you cast cost {1} less to cast.', 'Goblins you control have haste.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Creature — Wurm</t>
+          <t>('Life', ['{G}', 'Sorcery', 'All lands you control become 1/1 creatures until end of turn. They’re still lands.', 'Death', '{1}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. You lose life equal to its converted mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Trample</t>
+          <t>('Lobotomy', ['{2}{U}{B}', 'Sorcery', 'Target player reveals their hand, then you choose a card other than a basic land card from it. Search that player’s graveyard, hand, and library for all cards with the same name as the chosen card and exile them. Then that player shuffles their library.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Madness {2}{G} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)</t>
+          <t>('Terminate', ['{B}{R}', 'Instant', 'Destroy target creature. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Astral Slide</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Whenever a player cycles a card, you may exile target creature. If you do, return that card to the battlefield under its owner’s control at the beginning of the next end step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Chainer's Edict</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Target player sacrifices a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Flashback {5}{B}{B} (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Circular Logic</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Counter target spell unless its controller pays {1} for each card in your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Madness {U} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Elves of Deep Shadow</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creature — Elf Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{T}: Add {B}. Elves of Deep Shadow deals 1 damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fire deals 2 damage divided as you choose among one or two targets.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Ice</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tap target permanent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Goblin Warchief</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Goblin spells you cast cost {1} less to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Goblins you control have haste.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>All lands you control become 1/1 creatures until end of turn. They’re still lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Death</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Return target creature card from your graveyard to the battlefield. You lose life equal to its converted mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Lobotomy</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>{2}{U}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Target player reveals their hand, then you choose a card other than a basic land card from it. Search that player’s graveyard, hand, and library for all cards with the same name as the chosen card and exile them. Then that player shuffles their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Terminate</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Destroy target creature. It can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Wild Mongrel</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Creature — Dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Discard a card: Wild Mongrel gets +1/+1 and becomes the color of your choice until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Wild Mongrel', ['{1}{G}', 'Creature — Dog', 'Discard a card: Wild Mongrel gets +1/+1 and becomes the color of your choice until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
